--- a/biology/Médecine/Liste_de_médecins/Liste_de_médecins.xlsx
+++ b/biology/Médecine/Liste_de_médecins/Liste_de_médecins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decins</t>
+          <t>Liste_de_médecins</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decins</t>
+          <t>Liste_de_médecins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,6 +519,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decins</t>
+          <t>Liste_de_médecins</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +546,9 @@
           <t>Médecins renommés en tant que philosophes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Abu Bakr Mohammad Ibn Zakariya al-Razi = Al-Razi = Ar-Razi = Ibn Zakaria = Rhazes = Rasis (864-930)
 Averroes = Abu'l Walid Muhammad ibn Rushd de Cordoue (1126-1198)
@@ -547,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decins</t>
+          <t>Liste_de_médecins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -567,8 +583,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Écrivains
-Girolamo Fracastoro (né vers 1478 ou 1483, mort en 1553), poète latin, en plus de son activité scientifique
+          <t>Écrivains</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Girolamo Fracastoro (né vers 1478 ou 1483, mort en 1553), poète latin, en plus de son activité scientifique
 Rabelais (né vers 1483 ou 1494, mort en 1553)
 Arthur Conan Doyle (1859-1930)
 Anton Tchekhov (1860-1904)
@@ -581,11 +602,7 @@
 Jacques Chauviré (1915-2005)
 Michael Crichton (1942-2008)
 Jean-Christophe Rufin (1952-) Prix Goncourt 2001 avec Rouge Brésil
-Marc Zaffran, alias Martin Winckler (1955- )
-Musiciens
-Hector Berlioz a commencé des études de médecine sans les achever (1803-1869) ;
-Alexandre Borodine (1833-1887) ;
-Zubin Mehta (1936- ), chef d'orchestre, a également commencé des études de médecine.</t>
+Marc Zaffran, alias Martin Winckler (1955- )</t>
         </is>
       </c>
     </row>
@@ -595,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_m%C3%A9decins</t>
+          <t>Liste_de_médecins</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,10 +627,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Médecins renommés en tant qu'artistes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Musiciens</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hector Berlioz a commencé des études de médecine sans les achever (1803-1869) ;
+Alexandre Borodine (1833-1887) ;
+Zubin Mehta (1936- ), chef d'orchestre, a également commencé des études de médecine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_médecins</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Médecins renommés en tant qu'hommes politiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jean-Paul Marat (1743-1793)
 Nicolas Coquiart (1752-1823)
@@ -636,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_m%C3%A9decins</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_médecins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Luc (évangéliste), (Λουκᾶς dit Saint-Luc)
 Hildegarde de Bingen (1098-1179), docteur de l'église catholique, compositrice, femme de lettres
@@ -681,34 +740,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_de_m%C3%A9decins</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_médecins</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Médecins de fiction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Littérature
-Diafoirus et Monsieur Purgon, personnages du Malade imaginaire de Molière ;
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Diafoirus et Monsieur Purgon, personnages du Malade imaginaire de Molière ;
 Horace Bianchon, personnage de vingt-quatre des romans de La Comédie humaine de Balzac  ;
 Docteur Jivago, personnage éponyme du roman de Boris Pasternak ;
 Le docteur Knock, personnage éponyme de Knock ou le Triomphe de la médecine, comédie de Jules Romains ;
@@ -720,9 +784,43 @@
 Dr Antoine Thibault, héros des Thibault (1922-1939), roman-fleuve écrit par Martin du Gard ;
 Dr Bruno Sachs, dans La Maladie de Sachs (1998) de Martin Winckler ;
 Dr Jekyll, dans L'étrange Cas du docteur Jekyll et de M. Hyde (1886) de Robert Louis Stevenson.
-Dr Jim Parsons, dans Docteur futur (1959) de Philip K. Dick.
-Télévision
-Le docteur Leonard McCoy dans l'univers de Star Trek
+Dr Jim Parsons, dans Docteur futur (1959) de Philip K. Dick.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_médecins</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Médecins de fiction</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le docteur Leonard McCoy dans l'univers de Star Trek
 le docteur Helena Russel dans la série américaine Cosmos 1999 ;
 les docteurs Green, Benton, etc. de la série américaine Urgences ;
 les docteurs Grey, Shepherd, Burke, etc. de la série américaine Grey's Anatomy ;
@@ -734,16 +832,118 @@
 le docteur Maura Isles dans la série américaine Rizzoli &amp; Isles ;
 le Docteur (il ne s'agit ici que d'un nom), personnage principal de la série britannique Doctor Who ;
 les docteurs Muller, Galvo et Peyrac dans la série française Équipe médicale d'urgence ;
-les docteurs Antonakis et Proust dans la série brésilienne Nina.
-Cinéma
-Le Docteur Jivago (voir littérature) ;
-Le docteur Beck (Ne le dis à personne).
-Bandes dessinées
-Docteur Saignée, ami de Miki le Ranger de EsseGesse ;
+les docteurs Antonakis et Proust dans la série brésilienne Nina.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_médecins</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Médecins de fiction</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Docteur Jivago (voir littérature) ;
+Le docteur Beck (Ne le dis à personne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_médecins</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Médecins de fiction</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Docteur Saignée, ami de Miki le Ranger de EsseGesse ;
 Docteur Justice, médecin humanitaire, bande dessinée de Marcello et Ollivier ;
-Docteur Ventouse, bobologue de Claire Bretécher.
-Chanson
-Dr John : chanson de l'album The Boy Who Knew Too Much de Mika et personnage totalement inventé par le chanteur.
+Docteur Ventouse, bobologue de Claire Bretécher.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_médecins</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_m%C3%A9decins</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Médecins de fiction</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chanson</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Dr John : chanson de l'album The Boy Who Knew Too Much de Mika et personnage totalement inventé par le chanteur.
 Dr Robert : chanson de l'album Revolver des Beatles, écrite par John Lennon et Paul McCartney en 1966. Allusion probable au Dr Robert Freymann, célèbre dans le milieu artistique new-yorkais des années 60, délivrant toutes sortes de prescription médicales licites ou illicites, dont des amphétamines.</t>
         </is>
       </c>
